--- a/prep_data/2025_totals_defense.xlsx
+++ b/prep_data/2025_totals_defense.xlsx
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>16.6</v>
       </c>
       <c r="E2" t="n">
-        <v>1226</v>
+        <v>1443</v>
       </c>
       <c r="F2" t="n">
-        <v>94.3</v>
+        <v>96.2</v>
       </c>
       <c r="G2" t="n">
-        <v>2236</v>
+        <v>2641</v>
       </c>
       <c r="H2" t="n">
-        <v>172</v>
+        <v>176.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3462</v>
+        <v>4084</v>
       </c>
       <c r="J2" t="n">
-        <v>266.3</v>
+        <v>272.3</v>
       </c>
     </row>
     <row r="3">
@@ -526,167 +526,167 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>301</v>
+        <v>355</v>
       </c>
       <c r="D3" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="E3" t="n">
-        <v>1400</v>
+        <v>1706</v>
       </c>
       <c r="F3" t="n">
-        <v>107.7</v>
+        <v>113.7</v>
       </c>
       <c r="G3" t="n">
-        <v>2147</v>
+        <v>2461</v>
       </c>
       <c r="H3" t="n">
-        <v>165.2</v>
+        <v>164.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3547</v>
+        <v>4167</v>
       </c>
       <c r="J3" t="n">
-        <v>272.8</v>
+        <v>277.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>235</v>
+        <v>301</v>
       </c>
       <c r="D4" t="n">
-        <v>18.1</v>
+        <v>20.1</v>
       </c>
       <c r="E4" t="n">
-        <v>1157</v>
+        <v>1557</v>
       </c>
       <c r="F4" t="n">
-        <v>89</v>
+        <v>103.8</v>
       </c>
       <c r="G4" t="n">
-        <v>2509</v>
+        <v>2690</v>
       </c>
       <c r="H4" t="n">
-        <v>193</v>
+        <v>179.3</v>
       </c>
       <c r="I4" t="n">
-        <v>3666</v>
+        <v>4247</v>
       </c>
       <c r="J4" t="n">
-        <v>282</v>
+        <v>283.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="D5" t="n">
-        <v>20.8</v>
+        <v>19.7</v>
       </c>
       <c r="E5" t="n">
-        <v>1417</v>
+        <v>1353</v>
       </c>
       <c r="F5" t="n">
-        <v>109</v>
+        <v>90.2</v>
       </c>
       <c r="G5" t="n">
-        <v>2251</v>
+        <v>3021</v>
       </c>
       <c r="H5" t="n">
-        <v>173.2</v>
+        <v>201.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3668</v>
+        <v>4374</v>
       </c>
       <c r="J5" t="n">
-        <v>282.2</v>
+        <v>291.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>247</v>
+        <v>320</v>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>21.3</v>
       </c>
       <c r="E6" t="n">
-        <v>1318</v>
+        <v>1914</v>
       </c>
       <c r="F6" t="n">
-        <v>101.4</v>
+        <v>127.6</v>
       </c>
       <c r="G6" t="n">
-        <v>2415</v>
+        <v>2538</v>
       </c>
       <c r="H6" t="n">
-        <v>185.8</v>
+        <v>169.2</v>
       </c>
       <c r="I6" t="n">
-        <v>3733</v>
+        <v>4452</v>
       </c>
       <c r="J6" t="n">
-        <v>287.2</v>
+        <v>296.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>226</v>
+        <v>303</v>
       </c>
       <c r="D7" t="n">
-        <v>17.4</v>
+        <v>20.2</v>
       </c>
       <c r="E7" t="n">
-        <v>1185</v>
+        <v>1557</v>
       </c>
       <c r="F7" t="n">
-        <v>91.2</v>
+        <v>103.8</v>
       </c>
       <c r="G7" t="n">
-        <v>2562</v>
+        <v>2967</v>
       </c>
       <c r="H7" t="n">
-        <v>197.1</v>
+        <v>197.8</v>
       </c>
       <c r="I7" t="n">
-        <v>3747</v>
+        <v>4524</v>
       </c>
       <c r="J7" t="n">
-        <v>288.2</v>
+        <v>301.6</v>
       </c>
     </row>
     <row r="8">
@@ -696,235 +696,235 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c r="D8" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
-        <v>1163</v>
+        <v>1502</v>
       </c>
       <c r="F8" t="n">
-        <v>89.5</v>
+        <v>100.1</v>
       </c>
       <c r="G8" t="n">
-        <v>2690</v>
+        <v>3030</v>
       </c>
       <c r="H8" t="n">
-        <v>206.9</v>
+        <v>202</v>
       </c>
       <c r="I8" t="n">
-        <v>3853</v>
+        <v>4532</v>
       </c>
       <c r="J8" t="n">
-        <v>296.4</v>
+        <v>302.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D9" t="n">
-        <v>21.6</v>
+        <v>18.6</v>
       </c>
       <c r="E9" t="n">
-        <v>1648</v>
+        <v>1411</v>
       </c>
       <c r="F9" t="n">
-        <v>126.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>2240</v>
+        <v>3137</v>
       </c>
       <c r="H9" t="n">
-        <v>172.3</v>
+        <v>209.1</v>
       </c>
       <c r="I9" t="n">
-        <v>3888</v>
+        <v>4548</v>
       </c>
       <c r="J9" t="n">
-        <v>299.1</v>
+        <v>303.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>252</v>
+        <v>338</v>
       </c>
       <c r="D10" t="n">
-        <v>19.4</v>
+        <v>22.5</v>
       </c>
       <c r="E10" t="n">
-        <v>1293</v>
+        <v>1893</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5</v>
+        <v>126.2</v>
       </c>
       <c r="G10" t="n">
-        <v>2655</v>
+        <v>2659</v>
       </c>
       <c r="H10" t="n">
-        <v>204.2</v>
+        <v>177.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3948</v>
+        <v>4552</v>
       </c>
       <c r="J10" t="n">
-        <v>303.7</v>
+        <v>303.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D11" t="n">
-        <v>22.5</v>
+        <v>19.6</v>
       </c>
       <c r="E11" t="n">
-        <v>1758</v>
+        <v>1551</v>
       </c>
       <c r="F11" t="n">
-        <v>135.2</v>
+        <v>103.4</v>
       </c>
       <c r="G11" t="n">
-        <v>2234</v>
+        <v>3068</v>
       </c>
       <c r="H11" t="n">
-        <v>171.8</v>
+        <v>204.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3992</v>
+        <v>4619</v>
       </c>
       <c r="J11" t="n">
-        <v>307.1</v>
+        <v>307.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>272</v>
+        <v>344</v>
       </c>
       <c r="D12" t="n">
-        <v>20.9</v>
+        <v>22.9</v>
       </c>
       <c r="E12" t="n">
-        <v>1078</v>
+        <v>2164</v>
       </c>
       <c r="F12" t="n">
-        <v>82.90000000000001</v>
+        <v>144.3</v>
       </c>
       <c r="G12" t="n">
-        <v>2957</v>
+        <v>2507</v>
       </c>
       <c r="H12" t="n">
-        <v>227.5</v>
+        <v>167.1</v>
       </c>
       <c r="I12" t="n">
-        <v>4035</v>
+        <v>4671</v>
       </c>
       <c r="J12" t="n">
-        <v>310.4</v>
+        <v>311.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="D13" t="n">
-        <v>24.2</v>
+        <v>19.3</v>
       </c>
       <c r="E13" t="n">
-        <v>1702</v>
+        <v>1852</v>
       </c>
       <c r="F13" t="n">
-        <v>130.9</v>
+        <v>123.5</v>
       </c>
       <c r="G13" t="n">
-        <v>2374</v>
+        <v>2884</v>
       </c>
       <c r="H13" t="n">
-        <v>182.6</v>
+        <v>192.3</v>
       </c>
       <c r="I13" t="n">
-        <v>4076</v>
+        <v>4736</v>
       </c>
       <c r="J13" t="n">
-        <v>313.5</v>
+        <v>315.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>227</v>
+        <v>312</v>
       </c>
       <c r="D14" t="n">
-        <v>17.5</v>
+        <v>20.8</v>
       </c>
       <c r="E14" t="n">
-        <v>1345</v>
+        <v>1309</v>
       </c>
       <c r="F14" t="n">
-        <v>103.5</v>
+        <v>87.3</v>
       </c>
       <c r="G14" t="n">
-        <v>2750</v>
+        <v>3455</v>
       </c>
       <c r="H14" t="n">
-        <v>211.5</v>
+        <v>230.3</v>
       </c>
       <c r="I14" t="n">
-        <v>4095</v>
+        <v>4764</v>
       </c>
       <c r="J14" t="n">
-        <v>315</v>
+        <v>317.6</v>
       </c>
     </row>
     <row r="15">
@@ -934,167 +934,167 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="D15" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="E15" t="n">
-        <v>1703</v>
+        <v>1923</v>
       </c>
       <c r="F15" t="n">
-        <v>131</v>
+        <v>128.2</v>
       </c>
       <c r="G15" t="n">
-        <v>2489</v>
+        <v>2927</v>
       </c>
       <c r="H15" t="n">
-        <v>191.5</v>
+        <v>195.1</v>
       </c>
       <c r="I15" t="n">
-        <v>4192</v>
+        <v>4850</v>
       </c>
       <c r="J15" t="n">
-        <v>322.5</v>
+        <v>323.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Las Vegas Raiders</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>304</v>
+        <v>386</v>
       </c>
       <c r="D16" t="n">
-        <v>23.4</v>
+        <v>25.7</v>
       </c>
       <c r="E16" t="n">
-        <v>1335</v>
+        <v>1747</v>
       </c>
       <c r="F16" t="n">
-        <v>102.7</v>
+        <v>116.5</v>
       </c>
       <c r="G16" t="n">
-        <v>2876</v>
+        <v>3145</v>
       </c>
       <c r="H16" t="n">
-        <v>221.2</v>
+        <v>209.7</v>
       </c>
       <c r="I16" t="n">
-        <v>4211</v>
+        <v>4892</v>
       </c>
       <c r="J16" t="n">
-        <v>323.9</v>
+        <v>326.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D17" t="n">
-        <v>25.5</v>
+        <v>19.9</v>
       </c>
       <c r="E17" t="n">
-        <v>1481</v>
+        <v>1586</v>
       </c>
       <c r="F17" t="n">
-        <v>113.9</v>
+        <v>105.7</v>
       </c>
       <c r="G17" t="n">
-        <v>2754</v>
+        <v>3320</v>
       </c>
       <c r="H17" t="n">
-        <v>211.8</v>
+        <v>221.3</v>
       </c>
       <c r="I17" t="n">
-        <v>4235</v>
+        <v>4906</v>
       </c>
       <c r="J17" t="n">
-        <v>325.8</v>
+        <v>327.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D18" t="n">
-        <v>26.8</v>
+        <v>22.5</v>
       </c>
       <c r="E18" t="n">
-        <v>1813</v>
+        <v>1793</v>
       </c>
       <c r="F18" t="n">
-        <v>139.5</v>
+        <v>119.5</v>
       </c>
       <c r="G18" t="n">
-        <v>2472</v>
+        <v>3144</v>
       </c>
       <c r="H18" t="n">
-        <v>190.2</v>
+        <v>209.6</v>
       </c>
       <c r="I18" t="n">
-        <v>4285</v>
+        <v>4937</v>
       </c>
       <c r="J18" t="n">
-        <v>329.6</v>
+        <v>329.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="D19" t="n">
-        <v>22.8</v>
+        <v>21.3</v>
       </c>
       <c r="E19" t="n">
         <v>1543</v>
       </c>
       <c r="F19" t="n">
-        <v>118.7</v>
+        <v>102.9</v>
       </c>
       <c r="G19" t="n">
-        <v>2761</v>
+        <v>3440</v>
       </c>
       <c r="H19" t="n">
-        <v>212.4</v>
+        <v>229.3</v>
       </c>
       <c r="I19" t="n">
-        <v>4304</v>
+        <v>4983</v>
       </c>
       <c r="J19" t="n">
-        <v>331.1</v>
+        <v>332.2</v>
       </c>
     </row>
     <row r="20">
@@ -1104,303 +1104,303 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>296</v>
+        <v>369</v>
       </c>
       <c r="D20" t="n">
-        <v>22.8</v>
+        <v>24.6</v>
       </c>
       <c r="E20" t="n">
-        <v>1715</v>
+        <v>1955</v>
       </c>
       <c r="F20" t="n">
-        <v>131.9</v>
+        <v>130.3</v>
       </c>
       <c r="G20" t="n">
-        <v>2634</v>
+        <v>3137</v>
       </c>
       <c r="H20" t="n">
-        <v>202.6</v>
+        <v>209.1</v>
       </c>
       <c r="I20" t="n">
-        <v>4349</v>
+        <v>5092</v>
       </c>
       <c r="J20" t="n">
-        <v>334.5</v>
+        <v>339.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>269</v>
+        <v>403</v>
       </c>
       <c r="D21" t="n">
-        <v>20.7</v>
+        <v>26.9</v>
       </c>
       <c r="E21" t="n">
-        <v>1349</v>
+        <v>1781</v>
       </c>
       <c r="F21" t="n">
-        <v>103.8</v>
+        <v>118.7</v>
       </c>
       <c r="G21" t="n">
-        <v>3016</v>
+        <v>3344</v>
       </c>
       <c r="H21" t="n">
-        <v>232</v>
+        <v>222.9</v>
       </c>
       <c r="I21" t="n">
-        <v>4365</v>
+        <v>5125</v>
       </c>
       <c r="J21" t="n">
-        <v>335.8</v>
+        <v>341.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>325</v>
+        <v>426</v>
       </c>
       <c r="D22" t="n">
-        <v>25</v>
+        <v>28.4</v>
       </c>
       <c r="E22" t="n">
-        <v>1308</v>
+        <v>2005</v>
       </c>
       <c r="F22" t="n">
-        <v>100.6</v>
+        <v>133.7</v>
       </c>
       <c r="G22" t="n">
-        <v>3091</v>
+        <v>3130</v>
       </c>
       <c r="H22" t="n">
-        <v>237.8</v>
+        <v>208.7</v>
       </c>
       <c r="I22" t="n">
-        <v>4399</v>
+        <v>5135</v>
       </c>
       <c r="J22" t="n">
-        <v>338.4</v>
+        <v>342.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>271</v>
+        <v>377</v>
       </c>
       <c r="D23" t="n">
-        <v>20.8</v>
+        <v>25.1</v>
       </c>
       <c r="E23" t="n">
-        <v>1716</v>
+        <v>1520</v>
       </c>
       <c r="F23" t="n">
-        <v>132</v>
+        <v>101.3</v>
       </c>
       <c r="G23" t="n">
-        <v>2725</v>
+        <v>3630</v>
       </c>
       <c r="H23" t="n">
-        <v>209.6</v>
+        <v>242</v>
       </c>
       <c r="I23" t="n">
-        <v>4441</v>
+        <v>5150</v>
       </c>
       <c r="J23" t="n">
-        <v>341.6</v>
+        <v>343.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>285</v>
+        <v>374</v>
       </c>
       <c r="D24" t="n">
-        <v>21.9</v>
+        <v>24.9</v>
       </c>
       <c r="E24" t="n">
-        <v>1282</v>
+        <v>1724</v>
       </c>
       <c r="F24" t="n">
-        <v>98.59999999999999</v>
+        <v>114.9</v>
       </c>
       <c r="G24" t="n">
-        <v>3202</v>
+        <v>3487</v>
       </c>
       <c r="H24" t="n">
-        <v>246.3</v>
+        <v>232.5</v>
       </c>
       <c r="I24" t="n">
-        <v>4484</v>
+        <v>5211</v>
       </c>
       <c r="J24" t="n">
-        <v>344.9</v>
+        <v>347.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D25" t="n">
-        <v>26.8</v>
+        <v>23.6</v>
       </c>
       <c r="E25" t="n">
-        <v>1600</v>
+        <v>1965</v>
       </c>
       <c r="F25" t="n">
-        <v>123.1</v>
+        <v>131</v>
       </c>
       <c r="G25" t="n">
-        <v>2916</v>
+        <v>3256</v>
       </c>
       <c r="H25" t="n">
-        <v>224.3</v>
+        <v>217.1</v>
       </c>
       <c r="I25" t="n">
-        <v>4516</v>
+        <v>5221</v>
       </c>
       <c r="J25" t="n">
-        <v>347.4</v>
+        <v>348.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" t="n">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="D26" t="n">
-        <v>24.6</v>
+        <v>23.4</v>
       </c>
       <c r="E26" t="n">
-        <v>1455</v>
+        <v>1477</v>
       </c>
       <c r="F26" t="n">
-        <v>111.9</v>
+        <v>98.5</v>
       </c>
       <c r="G26" t="n">
-        <v>3068</v>
+        <v>3761</v>
       </c>
       <c r="H26" t="n">
-        <v>236</v>
+        <v>250.7</v>
       </c>
       <c r="I26" t="n">
-        <v>4523</v>
+        <v>5238</v>
       </c>
       <c r="J26" t="n">
-        <v>347.9</v>
+        <v>349.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27" t="n">
-        <v>357</v>
+        <v>414</v>
       </c>
       <c r="D27" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E27" t="n">
-        <v>1592</v>
+        <v>1895</v>
       </c>
       <c r="F27" t="n">
-        <v>122.5</v>
+        <v>126.3</v>
       </c>
       <c r="G27" t="n">
-        <v>2970</v>
+        <v>3362</v>
       </c>
       <c r="H27" t="n">
-        <v>228.5</v>
+        <v>224.1</v>
       </c>
       <c r="I27" t="n">
-        <v>4562</v>
+        <v>5257</v>
       </c>
       <c r="J27" t="n">
-        <v>350.9</v>
+        <v>350.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="D28" t="n">
-        <v>25.8</v>
+        <v>23.2</v>
       </c>
       <c r="E28" t="n">
-        <v>1723</v>
+        <v>1634</v>
       </c>
       <c r="F28" t="n">
-        <v>132.5</v>
+        <v>108.9</v>
       </c>
       <c r="G28" t="n">
-        <v>2922</v>
+        <v>3640</v>
       </c>
       <c r="H28" t="n">
-        <v>224.8</v>
+        <v>242.7</v>
       </c>
       <c r="I28" t="n">
-        <v>4645</v>
+        <v>5274</v>
       </c>
       <c r="J28" t="n">
-        <v>357.3</v>
+        <v>351.6</v>
       </c>
     </row>
     <row r="29">
@@ -1410,133 +1410,133 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" t="n">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="D29" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="E29" t="n">
-        <v>1629</v>
+        <v>1707</v>
       </c>
       <c r="F29" t="n">
-        <v>125.3</v>
+        <v>113.8</v>
       </c>
       <c r="G29" t="n">
-        <v>3172</v>
+        <v>3740</v>
       </c>
       <c r="H29" t="n">
-        <v>244</v>
+        <v>249.3</v>
       </c>
       <c r="I29" t="n">
-        <v>4801</v>
+        <v>5447</v>
       </c>
       <c r="J29" t="n">
-        <v>369.3</v>
+        <v>363.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" t="n">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="D30" t="n">
-        <v>29.7</v>
+        <v>27.5</v>
       </c>
       <c r="E30" t="n">
-        <v>1605</v>
+        <v>2264</v>
       </c>
       <c r="F30" t="n">
-        <v>123.5</v>
+        <v>150.9</v>
       </c>
       <c r="G30" t="n">
-        <v>3317</v>
+        <v>3331</v>
       </c>
       <c r="H30" t="n">
-        <v>255.2</v>
+        <v>222.1</v>
       </c>
       <c r="I30" t="n">
-        <v>4922</v>
+        <v>5595</v>
       </c>
       <c r="J30" t="n">
-        <v>378.6</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" t="n">
-        <v>354</v>
+        <v>454</v>
       </c>
       <c r="D31" t="n">
-        <v>27.2</v>
+        <v>30.3</v>
       </c>
       <c r="E31" t="n">
-        <v>1762</v>
+        <v>1834</v>
       </c>
       <c r="F31" t="n">
-        <v>135.5</v>
+        <v>122.3</v>
       </c>
       <c r="G31" t="n">
-        <v>3210</v>
+        <v>3867</v>
       </c>
       <c r="H31" t="n">
-        <v>246.9</v>
+        <v>257.8</v>
       </c>
       <c r="I31" t="n">
-        <v>4972</v>
+        <v>5701</v>
       </c>
       <c r="J31" t="n">
-        <v>382.5</v>
+        <v>380.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C32" t="n">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="D32" t="n">
-        <v>28.2</v>
+        <v>26.9</v>
       </c>
       <c r="E32" t="n">
-        <v>2005</v>
+        <v>2115</v>
       </c>
       <c r="F32" t="n">
-        <v>154.2</v>
+        <v>141</v>
       </c>
       <c r="G32" t="n">
-        <v>3010</v>
+        <v>3626</v>
       </c>
       <c r="H32" t="n">
-        <v>231.5</v>
+        <v>241.7</v>
       </c>
       <c r="I32" t="n">
-        <v>5015</v>
+        <v>5741</v>
       </c>
       <c r="J32" t="n">
-        <v>385.8</v>
+        <v>382.7</v>
       </c>
     </row>
     <row r="33">
@@ -1546,31 +1546,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33" t="n">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="D33" t="n">
-        <v>31.8</v>
+        <v>30.5</v>
       </c>
       <c r="E33" t="n">
-        <v>2022</v>
+        <v>2340</v>
       </c>
       <c r="F33" t="n">
-        <v>155.5</v>
+        <v>156</v>
       </c>
       <c r="G33" t="n">
-        <v>3314</v>
+        <v>3702</v>
       </c>
       <c r="H33" t="n">
-        <v>254.9</v>
+        <v>246.8</v>
       </c>
       <c r="I33" t="n">
-        <v>5336</v>
+        <v>6042</v>
       </c>
       <c r="J33" t="n">
-        <v>410.5</v>
+        <v>402.8</v>
       </c>
     </row>
   </sheetData>
